--- a/Annotations/Old/PrideAndPrejudice.xlsx
+++ b/Annotations/Old/PrideAndPrejudice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1724,24 +1724,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="4" max="4" width="40.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
     <col min="7" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -1791,10 +1791,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.67285189704356774</v>
+        <v>0.13702577176899478</v>
       </c>
       <c r="B2" s="2">
         <v>182</v>
@@ -1821,10 +1821,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55867647030297396</v>
+        <v>0.32220150482078247</v>
       </c>
       <c r="B3" s="2">
         <v>208</v>
@@ -1845,10 +1845,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91246774662739605</v>
+        <v>0.28907771163518559</v>
       </c>
       <c r="B4" s="2">
         <v>161</v>
@@ -1872,10 +1872,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1952459338851731E-2</v>
+        <v>0.1169674076968038</v>
       </c>
       <c r="B5" s="2">
         <v>13</v>
@@ -1896,10 +1896,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44334967977268114</v>
+        <v>0.52648983096675706</v>
       </c>
       <c r="B6" s="2">
         <v>81</v>
@@ -1923,10 +1923,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51985987256846089</v>
+        <v>0.67368507276595602</v>
       </c>
       <c r="B7" s="2">
         <v>80</v>
@@ -1953,10 +1953,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45462050204000448</v>
+        <v>0.76304627352176757</v>
       </c>
       <c r="B8" s="2">
         <v>98</v>
@@ -1977,10 +1977,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1045132991575657E-2</v>
+        <v>0.53218702661787187</v>
       </c>
       <c r="B9" s="2">
         <v>170</v>
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62179343788827457</v>
+        <v>0.31121988043634297</v>
       </c>
       <c r="B10" s="2">
         <v>189</v>
@@ -2025,10 +2025,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19396961339536789</v>
+        <v>0.29997841544108272</v>
       </c>
       <c r="B11" s="2">
         <v>124</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8692210861245051</v>
+        <v>7.0910793345670298E-2</v>
       </c>
       <c r="B12" s="2">
         <v>226</v>
@@ -2070,10 +2070,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60622049954973545</v>
+        <v>0.97140577179206677</v>
       </c>
       <c r="B13" s="2">
         <v>48</v>
@@ -2097,10 +2097,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68701764657054709</v>
+        <v>0.12728414207378702</v>
       </c>
       <c r="B14" s="2">
         <v>176</v>
@@ -2124,10 +2124,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86854938208181054</v>
+        <v>0.87676288597450847</v>
       </c>
       <c r="B15" s="2">
         <v>83</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58560149808167017</v>
+        <v>0.85289127499135131</v>
       </c>
       <c r="B16" s="2">
         <v>173</v>
@@ -2169,10 +2169,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34402175504401244</v>
+        <v>0.63823287099641335</v>
       </c>
       <c r="B17" s="2">
         <v>120</v>
@@ -2193,10 +2193,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93016195182624684</v>
+        <v>0.3340096213610293</v>
       </c>
       <c r="B18" s="2">
         <v>72</v>
@@ -2217,10 +2217,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40543427717218017</v>
+        <v>9.0436349071025046E-2</v>
       </c>
       <c r="B19" s="2">
         <v>166</v>
@@ -2244,10 +2244,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20806370536935548</v>
+        <v>0.68775987652866999</v>
       </c>
       <c r="B20" s="2">
         <v>74</v>
@@ -2271,10 +2271,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35419747488941711</v>
+        <v>0.28801689051265156</v>
       </c>
       <c r="B21" s="2">
         <v>153</v>
@@ -2298,10 +2298,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34608285283017959</v>
+        <v>0.30104947521620828</v>
       </c>
       <c r="B22" s="2">
         <v>127</v>
@@ -2322,10 +2322,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35729010781729309</v>
+        <v>3.56882042056198E-2</v>
       </c>
       <c r="B23" s="2">
         <v>155</v>
@@ -2349,10 +2349,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27090805398041962</v>
+        <v>0.21789971046048773</v>
       </c>
       <c r="B24" s="2">
         <v>243</v>
@@ -2376,10 +2376,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25074760336909507</v>
+        <v>7.9853238842115926E-2</v>
       </c>
       <c r="B25" s="2">
         <v>136</v>
@@ -2400,10 +2400,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32337402357095302</v>
+        <v>0.45311780128371726</v>
       </c>
       <c r="B26" s="2">
         <v>106</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9445636271201201</v>
+        <v>0.52152419736930078</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -2448,10 +2448,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56282595409655212</v>
+        <v>0.88406849753827754</v>
       </c>
       <c r="B28" s="2">
         <v>212</v>
@@ -2475,10 +2475,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28363315557561808</v>
+        <v>0.56138073681767875</v>
       </c>
       <c r="B29" s="2">
         <v>235</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24524247720552694</v>
+        <v>0.84865199767034771</v>
       </c>
       <c r="B30" s="2">
         <v>70</v>
@@ -2520,10 +2520,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25509986058603573</v>
+        <v>0.22739389891323902</v>
       </c>
       <c r="B31" s="2">
         <v>175</v>
@@ -2547,10 +2547,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16056954612381591</v>
+        <v>0.90052953646798273</v>
       </c>
       <c r="B32" s="2">
         <v>223</v>
@@ -2574,10 +2574,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97305848377920579</v>
+        <v>0.27438668155607004</v>
       </c>
       <c r="B33" s="2">
         <v>228</v>
@@ -2598,10 +2598,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23277176171972547</v>
+        <v>1.9174250176577701E-2</v>
       </c>
       <c r="B34" s="2">
         <v>108</v>
@@ -2628,10 +2628,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86575843567246713</v>
+        <v>3.2154988985604982E-2</v>
       </c>
       <c r="B35" s="2">
         <v>116</v>
@@ -2652,10 +2652,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0604784451239984E-2</v>
+        <v>0.21678497632788474</v>
       </c>
       <c r="B36" s="2">
         <v>240</v>
@@ -2685,10 +2685,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92107551635657459</v>
+        <v>0.31584649278906196</v>
       </c>
       <c r="B37" s="2">
         <v>118</v>
@@ -2709,10 +2709,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52501843062950715</v>
+        <v>0.53477041531715475</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
@@ -2733,10 +2733,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5060632514421273E-2</v>
+        <v>3.31779633183239E-2</v>
       </c>
       <c r="B39" s="2">
         <v>210</v>
@@ -2760,10 +2760,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50337302185667698</v>
+        <v>0.84091845844079949</v>
       </c>
       <c r="B40" s="2">
         <v>99</v>
@@ -2787,10 +2787,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61122600077058542</v>
+        <v>0.47502419040465471</v>
       </c>
       <c r="B41" s="2">
         <v>165</v>
@@ -2811,10 +2811,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11496738228064973</v>
+        <v>0.13401256619029489</v>
       </c>
       <c r="B42" s="2">
         <v>252</v>
@@ -2838,10 +2838,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92208645113612142</v>
+        <v>0.88623604982749837</v>
       </c>
       <c r="B43" s="2">
         <v>87</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3791722876064032E-2</v>
+        <v>1.5672949537013703E-2</v>
       </c>
       <c r="B44" s="2">
         <v>241</v>
@@ -2883,10 +2883,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87745533714663737</v>
+        <v>0.92567987461848467</v>
       </c>
       <c r="B45" s="2">
         <v>229</v>
@@ -2907,10 +2907,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1736119913221579E-3</v>
+        <v>0.49258516673778385</v>
       </c>
       <c r="B46" s="2">
         <v>46</v>
@@ -2934,10 +2934,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27786965901969285</v>
+        <v>0.33718072679610067</v>
       </c>
       <c r="B47" s="2">
         <v>49</v>
@@ -2958,10 +2958,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11352437387447434</v>
+        <v>0.28023009754828465</v>
       </c>
       <c r="B48" s="2">
         <v>21</v>
@@ -2985,10 +2985,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79632386598063354</v>
+        <v>0.26730192958895937</v>
       </c>
       <c r="B49" s="2">
         <v>144</v>
@@ -3012,10 +3012,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28161771733046159</v>
+        <v>0.38969094161898443</v>
       </c>
       <c r="B50" s="2">
         <v>230</v>
@@ -3036,10 +3036,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36176085784330669</v>
+        <v>0.17026729670331808</v>
       </c>
       <c r="B51" s="2">
         <v>134</v>
@@ -3066,10 +3066,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77581183078276439</v>
+        <v>6.7383154253538358E-2</v>
       </c>
       <c r="B52" s="2">
         <v>61</v>
@@ -3093,10 +3093,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70532473103061888</v>
+        <v>0.74195224246509539</v>
       </c>
       <c r="B53" s="2">
         <v>234</v>
@@ -3117,10 +3117,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19206616124100306</v>
+        <v>0.48060112029609692</v>
       </c>
       <c r="B54" s="2">
         <v>82</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98536335958089338</v>
+        <v>0.27149595093094314</v>
       </c>
       <c r="B55" s="2">
         <v>192</v>
@@ -3162,10 +3162,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15990252053524412</v>
+        <v>2.2141953342990628E-2</v>
       </c>
       <c r="B56" s="2">
         <v>150</v>
@@ -3189,10 +3189,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23971951439597605</v>
+        <v>0.14375314035840625</v>
       </c>
       <c r="B57" s="2">
         <v>191</v>
@@ -3213,10 +3213,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79128764424129516</v>
+        <v>0.32890382094165183</v>
       </c>
       <c r="B58" s="2">
         <v>53</v>
@@ -3237,10 +3237,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55995309152931672</v>
+        <v>0.90607528813832383</v>
       </c>
       <c r="B59" s="2">
         <v>35</v>
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37932574864268198</v>
+        <v>0.76043696763626889</v>
       </c>
       <c r="B60" s="2">
         <v>30</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62590667774380437</v>
+        <v>0.84521351494280739</v>
       </c>
       <c r="B61" s="2">
         <v>73</v>
@@ -3303,10 +3303,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28286002015951206</v>
+        <v>0.1594738321402519</v>
       </c>
       <c r="B62" s="2">
         <v>28</v>
@@ -3330,10 +3330,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38408289501476789</v>
+        <v>0.75919429063858412</v>
       </c>
       <c r="B63" s="2">
         <v>65</v>
@@ -3363,10 +3363,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83257624055978618</v>
+        <v>1.432642973748921E-2</v>
       </c>
       <c r="B64" s="2">
         <v>256</v>
@@ -3390,10 +3390,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.827722905298796E-2</v>
+        <v>0.5877839929907005</v>
       </c>
       <c r="B65" s="2">
         <v>163</v>
@@ -3414,10 +3414,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.8540371458365198</v>
+        <v>0.87096049314514423</v>
       </c>
       <c r="B66" s="2">
         <v>12</v>
@@ -3438,10 +3438,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7011171897097539</v>
+        <v>6.6108253132942107E-2</v>
       </c>
       <c r="B67" s="2">
         <v>187</v>
@@ -3462,10 +3462,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2495478120066839E-2</v>
+        <v>0.99703056992961747</v>
       </c>
       <c r="B68" s="2">
         <v>201</v>
@@ -3486,10 +3486,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91797512537033776</v>
+        <v>0.65045140042916061</v>
       </c>
       <c r="B69" s="2">
         <v>27</v>
@@ -3513,10 +3513,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56156606266023501</v>
+        <v>0.35877919972893535</v>
       </c>
       <c r="B70" s="2">
         <v>181</v>
@@ -3540,10 +3540,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52341432698052814</v>
+        <v>0.89343099089292632</v>
       </c>
       <c r="B71" s="2">
         <v>63</v>
@@ -3570,10 +3570,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94420788795812571</v>
+        <v>0.17588669121014389</v>
       </c>
       <c r="B72" s="2">
         <v>107</v>
@@ -3594,10 +3594,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61266522781095212</v>
+        <v>0.90171957864143137</v>
       </c>
       <c r="B73" s="2">
         <v>36</v>
@@ -3624,10 +3624,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99245410609416507</v>
+        <v>0.54888572240981615</v>
       </c>
       <c r="B74" s="2">
         <v>94</v>
@@ -3654,10 +3654,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50662557380136408</v>
+        <v>0.72781617815574806</v>
       </c>
       <c r="B75" s="2">
         <v>122</v>
@@ -3681,10 +3681,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.765769012655066E-2</v>
+        <v>0.54706581856131786</v>
       </c>
       <c r="B76" s="2">
         <v>246</v>
@@ -3705,10 +3705,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10423469467956048</v>
+        <v>0.60047265687756757</v>
       </c>
       <c r="B77" s="2">
         <v>32</v>
@@ -3735,10 +3735,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9974650761355871</v>
+        <v>0.63578411587484951</v>
       </c>
       <c r="B78" s="2">
         <v>183</v>
@@ -3768,10 +3768,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76341435491828469</v>
+        <v>0.61094307641233281</v>
       </c>
       <c r="B79" s="2">
         <v>20</v>
@@ -3795,10 +3795,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38754483270352458</v>
+        <v>0.24315477508431016</v>
       </c>
       <c r="B80" s="2">
         <v>39</v>
@@ -3828,10 +3828,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79506629684151486</v>
+        <v>0.5979931325947756</v>
       </c>
       <c r="B81" s="2">
         <v>174</v>
@@ -3849,10 +3849,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6276061931117423E-2</v>
+        <v>0.15083921156545499</v>
       </c>
       <c r="B82" s="2">
         <v>90</v>
@@ -3876,10 +3876,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13077731842157359</v>
+        <v>0.91753495874698177</v>
       </c>
       <c r="B83" s="2">
         <v>69</v>
@@ -3906,10 +3906,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62590733883231942</v>
+        <v>0.1739865586240984</v>
       </c>
       <c r="B84" s="2">
         <v>216</v>
@@ -3936,10 +3936,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.301040267478074</v>
+        <v>0.58543372075665623</v>
       </c>
       <c r="B85" s="2">
         <v>86</v>
@@ -3960,10 +3960,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24758347952638737</v>
+        <v>0.24140731914554014</v>
       </c>
       <c r="B86" s="2">
         <v>142</v>
@@ -3987,10 +3987,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23388361313925266</v>
+        <v>6.3258654727413988E-2</v>
       </c>
       <c r="B87" s="2">
         <v>112</v>
@@ -4011,10 +4011,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14135517119944707</v>
+        <v>0.43969960637432437</v>
       </c>
       <c r="B88" s="2">
         <v>121</v>
@@ -4038,10 +4038,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2272292970815166E-2</v>
+        <v>0.38215110175066125</v>
       </c>
       <c r="B89" s="2">
         <v>54</v>
@@ -4062,10 +4062,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79738493543839206</v>
+        <v>0.19771205479349396</v>
       </c>
       <c r="B90" s="2">
         <v>231</v>
@@ -4083,10 +4083,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50114090512888221</v>
+        <v>4.9648705336745591E-3</v>
       </c>
       <c r="B91" s="2">
         <v>58</v>
@@ -4107,10 +4107,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3553335679676366</v>
+        <v>0.50729964783615511</v>
       </c>
       <c r="B92" s="2">
         <v>251</v>
@@ -4128,10 +4128,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86853321453954269</v>
+        <v>0.88740547442359674</v>
       </c>
       <c r="B93" s="2">
         <v>215</v>
@@ -4152,10 +4152,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4895234089340752</v>
+        <v>0.5183116375885215</v>
       </c>
       <c r="B94" s="2">
         <v>195</v>
@@ -4179,10 +4179,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44238065598225618</v>
+        <v>0.17831814218613717</v>
       </c>
       <c r="B95" s="2">
         <v>97</v>
@@ -4206,10 +4206,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20662019334336379</v>
+        <v>0.58720723418461618</v>
       </c>
       <c r="B96" s="2">
         <v>254</v>
@@ -4233,10 +4233,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70623655032156085</v>
+        <v>0.89841827588129464</v>
       </c>
       <c r="B97" s="2">
         <v>167</v>
@@ -4260,10 +4260,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66189091172983039</v>
+        <v>6.6600769507553448E-2</v>
       </c>
       <c r="B98" s="2">
         <v>169</v>
@@ -4293,10 +4293,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82977373291736145</v>
+        <v>0.55323879131206777</v>
       </c>
       <c r="B99" s="2">
         <v>128</v>
@@ -4320,10 +4320,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55359179582546525</v>
+        <v>0.70728830651872066</v>
       </c>
       <c r="B100" s="2">
         <v>157</v>
@@ -4347,10 +4347,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40266542794714943</v>
+        <v>0.32302355204889865</v>
       </c>
       <c r="B101" s="2">
         <v>193</v>
@@ -4374,10 +4374,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14682626210151528</v>
+        <v>0.3151216854652954</v>
       </c>
       <c r="B102" s="2">
         <v>206</v>
@@ -4398,10 +4398,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11785406608058535</v>
+        <v>0.43321297108725365</v>
       </c>
       <c r="B103" s="2">
         <v>152</v>
@@ -4425,10 +4425,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10439619002051426</v>
+        <v>4.7387119009794976E-2</v>
       </c>
       <c r="B104" s="2">
         <v>207</v>
@@ -4452,10 +4452,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13522171187082732</v>
+        <v>8.5544751352217729E-2</v>
       </c>
       <c r="B105" s="2">
         <v>15</v>
@@ -4476,10 +4476,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9760896441781766E-2</v>
+        <v>5.2978109356198066E-2</v>
       </c>
       <c r="B106" s="2">
         <v>204</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7751089805503153</v>
+        <v>0.45716032456033584</v>
       </c>
       <c r="B107" s="2">
         <v>132</v>
@@ -4521,10 +4521,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18901572284921175</v>
+        <v>0.59124486634217577</v>
       </c>
       <c r="B108" s="2">
         <v>57</v>
@@ -4545,10 +4545,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8603722666537044E-3</v>
+        <v>6.7053315733587304E-3</v>
       </c>
       <c r="B109" s="2">
         <v>162</v>
@@ -4572,10 +4572,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1830365350569737</v>
+        <v>3.2555502115509283E-2</v>
       </c>
       <c r="B110" s="2">
         <v>78</v>
@@ -4602,10 +4602,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17213713601326441</v>
+        <v>0.13123270252207886</v>
       </c>
       <c r="B111" s="2">
         <v>66</v>
@@ -4629,10 +4629,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40992678429318352</v>
+        <v>0.59689683003911187</v>
       </c>
       <c r="B112" s="2">
         <v>126</v>
@@ -4653,10 +4653,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.471229797251028E-2</v>
+        <v>0.8402182463725888</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
@@ -4677,10 +4677,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12171222620420874</v>
+        <v>0.99065335797942966</v>
       </c>
       <c r="B114" s="2">
         <v>233</v>
@@ -4704,10 +4704,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3587539361414249E-2</v>
+        <v>0.7908989443449076</v>
       </c>
       <c r="B115" s="2">
         <v>222</v>
@@ -4728,10 +4728,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69284228882158272</v>
+        <v>3.764344864471425E-2</v>
       </c>
       <c r="B116" s="2">
         <v>158</v>
@@ -4752,10 +4752,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2541640862949156</v>
+        <v>0.9152910424859626</v>
       </c>
       <c r="B117" s="2">
         <v>24</v>
@@ -4776,10 +4776,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9385022773727507E-2</v>
+        <v>0.62186831783165963</v>
       </c>
       <c r="B118" s="2">
         <v>133</v>
@@ -4800,10 +4800,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39635864157985701</v>
+        <v>0.47832516581949991</v>
       </c>
       <c r="B119" s="2">
         <v>67</v>
@@ -4824,10 +4824,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21962639539955464</v>
+        <v>0.49415202257529522</v>
       </c>
       <c r="B120" s="2">
         <v>47</v>
@@ -4851,10 +4851,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89939885297258448</v>
+        <v>0.58279502566718677</v>
       </c>
       <c r="B121" s="2">
         <v>200</v>
@@ -4881,10 +4881,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.540163189851527</v>
+        <v>0.23190091766539567</v>
       </c>
       <c r="B122" s="2">
         <v>247</v>
@@ -4908,10 +4908,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59716996786170595</v>
+        <v>0.65086546189525429</v>
       </c>
       <c r="B123" s="2">
         <v>198</v>
@@ -4932,10 +4932,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61315830716528996</v>
+        <v>0.93347830037577362</v>
       </c>
       <c r="B124" s="2">
         <v>199</v>
@@ -4953,10 +4953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56086434108163896</v>
+        <v>6.1711590972659214E-2</v>
       </c>
       <c r="B125" s="2">
         <v>114</v>
@@ -4980,10 +4980,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16989810774867498</v>
+        <v>0.42484457005754606</v>
       </c>
       <c r="B126" s="2">
         <v>211</v>
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67749582090569649</v>
+        <v>0.61027874409921823</v>
       </c>
       <c r="B127" s="2">
         <v>38</v>
@@ -5025,10 +5025,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75267475686605356</v>
+        <v>0.45406562724974231</v>
       </c>
       <c r="B128" s="2">
         <v>23</v>
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72413538268404576</v>
+        <v>0.22215034374332876</v>
       </c>
       <c r="B129" s="2">
         <v>117</v>
@@ -5073,10 +5073,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.29462335449659272</v>
+        <v>5.5602507949423896E-2</v>
       </c>
       <c r="B130" s="2">
         <v>115</v>
@@ -5100,10 +5100,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1747622487084319E-2</v>
+        <v>0.87929344550748423</v>
       </c>
       <c r="B131" s="2">
         <v>238</v>
@@ -5124,10 +5124,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1391802019634002</v>
+        <v>0.4418778587675477</v>
       </c>
       <c r="B132" s="2">
         <v>244</v>
@@ -5151,10 +5151,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62533571586606662</v>
+        <v>0.54554057066262529</v>
       </c>
       <c r="B133" s="2">
         <v>84</v>
@@ -5181,10 +5181,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79865737374736057</v>
+        <v>5.7863532855186417E-2</v>
       </c>
       <c r="B134" s="2">
         <v>76</v>
@@ -5205,10 +5205,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67630259278514893</v>
+        <v>3.8981021472278443E-2</v>
       </c>
       <c r="B135" s="2">
         <v>139</v>
@@ -5235,10 +5235,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1480156825617054E-2</v>
+        <v>0.41936327553044594</v>
       </c>
       <c r="B136" s="2">
         <v>148</v>
@@ -5262,10 +5262,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16604715786522728</v>
+        <v>0.26941574250343936</v>
       </c>
       <c r="B137" s="2">
         <v>131</v>
@@ -5286,10 +5286,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44578717538740043</v>
+        <v>0.58151799753998445</v>
       </c>
       <c r="B138" s="2">
         <v>42</v>
@@ -5313,10 +5313,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21858550867900151</v>
+        <v>0.43081060272398652</v>
       </c>
       <c r="B139" s="2">
         <v>177</v>
@@ -5337,10 +5337,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4197465847735984E-2</v>
+        <v>0.8864051092349049</v>
       </c>
       <c r="B140" s="2">
         <v>214</v>
@@ -5364,10 +5364,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50196860209999616</v>
+        <v>0.92601476818356665</v>
       </c>
       <c r="B141" s="2">
         <v>29</v>
@@ -5388,10 +5388,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32470754876741015</v>
+        <v>0.38096752997227723</v>
       </c>
       <c r="B142" s="2">
         <v>104</v>
@@ -5412,10 +5412,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92077358614670257</v>
+        <v>7.0272748311349664E-3</v>
       </c>
       <c r="B143" s="2">
         <v>19</v>
@@ -5433,10 +5433,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24104556640259256</v>
+        <v>0.68553583284824215</v>
       </c>
       <c r="B144" s="2">
         <v>225</v>
@@ -5460,10 +5460,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95858125308686726</v>
+        <v>0.8932185886484304</v>
       </c>
       <c r="B145" s="2">
         <v>141</v>
@@ -5484,10 +5484,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20164753160830629</v>
+        <v>0.38052306552472137</v>
       </c>
       <c r="B146" s="2">
         <v>51</v>
@@ -5511,10 +5511,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86326214245706134</v>
+        <v>0.285485087416817</v>
       </c>
       <c r="B147" s="2">
         <v>17</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49316831991030907</v>
+        <v>0.4821332282015226</v>
       </c>
       <c r="B148" s="2">
         <v>160</v>
@@ -5562,10 +5562,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76555786313277319</v>
+        <v>3.8513567636073054E-2</v>
       </c>
       <c r="B149" s="2">
         <v>218</v>
@@ -5586,10 +5586,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5422719880803617</v>
+        <v>0.7867360808541165</v>
       </c>
       <c r="B150" s="2">
         <v>56</v>
@@ -5610,10 +5610,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70442337525705545</v>
+        <v>0.62732278530681895</v>
       </c>
       <c r="B151" s="2">
         <v>147</v>
@@ -5634,10 +5634,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20445487947045293</v>
+        <v>0.57946260749671641</v>
       </c>
       <c r="B152" s="2">
         <v>129</v>
@@ -5661,10 +5661,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75914205693935866</v>
+        <v>0.55160858895406983</v>
       </c>
       <c r="B153" s="2">
         <v>190</v>
@@ -5685,10 +5685,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1999494347335401</v>
+        <v>0.85648973000951212</v>
       </c>
       <c r="B154" s="2">
         <v>14</v>
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54689144420177471</v>
+        <v>0.7208002304604858</v>
       </c>
       <c r="B155" s="2">
         <v>130</v>
@@ -5730,10 +5730,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47856960201304899</v>
+        <v>0.30898033923329393</v>
       </c>
       <c r="B156" s="2">
         <v>101</v>
@@ -5757,10 +5757,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97530197438726463</v>
+        <v>0.99809627980538795</v>
       </c>
       <c r="B157" s="2">
         <v>239</v>
@@ -5781,10 +5781,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48791618679673354</v>
+        <v>0.31347512646329112</v>
       </c>
       <c r="B158" s="2">
         <v>255</v>
@@ -5805,10 +5805,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69831004175184419</v>
+        <v>3.8875056153133691E-3</v>
       </c>
       <c r="B159" s="2">
         <v>34</v>
@@ -5829,10 +5829,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4677263454870202E-2</v>
+        <v>0.87297180534763463</v>
       </c>
       <c r="B160" s="2">
         <v>71</v>
@@ -5853,10 +5853,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17105389665495674</v>
+        <v>0.84909650850153806</v>
       </c>
       <c r="B161" s="2">
         <v>55</v>
@@ -5877,10 +5877,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30061393261558711</v>
+        <v>0.91697198204368879</v>
       </c>
       <c r="B162" s="2">
         <v>232</v>
@@ -5901,10 +5901,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4880792645933868</v>
+        <v>0.23045136732450688</v>
       </c>
       <c r="B163" s="2">
         <v>89</v>
@@ -5925,10 +5925,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93447092506272644</v>
+        <v>0.47087841807441533</v>
       </c>
       <c r="B164" s="2">
         <v>31</v>
@@ -5946,10 +5946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96197120813097081</v>
+        <v>0.71044091172398338</v>
       </c>
       <c r="B165" s="2">
         <v>44</v>
@@ -5970,10 +5970,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1349222198236446E-2</v>
+        <v>0.49596005360395812</v>
       </c>
       <c r="B166" s="2">
         <v>184</v>
@@ -5997,10 +5997,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51579711756462465</v>
+        <v>0.79694124287185619</v>
       </c>
       <c r="B167" s="2">
         <v>143</v>
@@ -6027,10 +6027,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49820147696059114</v>
+        <v>0.15336614184298258</v>
       </c>
       <c r="B168" s="2">
         <v>186</v>
@@ -6051,10 +6051,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84216515486166932</v>
+        <v>0.63386695147458416</v>
       </c>
       <c r="B169" s="2">
         <v>102</v>
@@ -6075,10 +6075,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58813862982998699</v>
+        <v>0.3799067246835548</v>
       </c>
       <c r="B170" s="2">
         <v>103</v>
@@ -6099,10 +6099,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85818263924225235</v>
+        <v>0.72023330377362538</v>
       </c>
       <c r="B171" s="2">
         <v>52</v>
@@ -6126,10 +6126,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53755897133427499</v>
+        <v>0.6621317984819608</v>
       </c>
       <c r="B172" s="2">
         <v>110</v>
@@ -6156,10 +6156,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74454086208704928</v>
+        <v>0.2493934088455777</v>
       </c>
       <c r="B173" s="2">
         <v>213</v>
@@ -6183,10 +6183,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55575842475812232</v>
+        <v>0.67937443191147007</v>
       </c>
       <c r="B174" s="2">
         <v>25</v>
@@ -6210,10 +6210,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52082823284117863</v>
+        <v>0.67829291191089136</v>
       </c>
       <c r="B175" s="2">
         <v>237</v>
@@ -6231,10 +6231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20946903265441696</v>
+        <v>0.13837896407865058</v>
       </c>
       <c r="B176" s="2">
         <v>2</v>
@@ -6258,10 +6258,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68167956893993276</v>
+        <v>0.6507628446821051</v>
       </c>
       <c r="B177" s="2">
         <v>60</v>
@@ -6285,10 +6285,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75409030322672221</v>
+        <v>0.86488776171198323</v>
       </c>
       <c r="B178" s="2">
         <v>245</v>
@@ -6312,10 +6312,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4248197170305188</v>
+        <v>0.32992938913270975</v>
       </c>
       <c r="B179" s="2">
         <v>33</v>
@@ -6339,10 +6339,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66604524580883795</v>
+        <v>0.1246512488638466</v>
       </c>
       <c r="B180" s="2">
         <v>22</v>
@@ -6363,10 +6363,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99616521826048898</v>
+        <v>0.28406040290538914</v>
       </c>
       <c r="B181" s="2">
         <v>26</v>
@@ -6387,10 +6387,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94145979086924803</v>
+        <v>0.38044620086355108</v>
       </c>
       <c r="B182" s="2">
         <v>64</v>
@@ -6414,10 +6414,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22141451852433958</v>
+        <v>0.51355598430342342</v>
       </c>
       <c r="B183" s="2">
         <v>8</v>
@@ -6441,10 +6441,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44701212263680112</v>
+        <v>0.87218074904752585</v>
       </c>
       <c r="B184" s="2">
         <v>1</v>
@@ -6462,10 +6462,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66844796778112725</v>
+        <v>0.19139611538291668</v>
       </c>
       <c r="B185" s="2">
         <v>135</v>
@@ -6489,10 +6489,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76720144716530247</v>
+        <v>0.4940617570965502</v>
       </c>
       <c r="B186" s="2">
         <v>95</v>
@@ -6519,10 +6519,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22192187978452238</v>
+        <v>0.31992508590686441</v>
       </c>
       <c r="B187" s="2">
         <v>18</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40097215018485244</v>
+        <v>0.6954581724512765</v>
       </c>
       <c r="B188" s="2">
         <v>180</v>
@@ -6567,10 +6567,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89059725957778935</v>
+        <v>0.18251826169137186</v>
       </c>
       <c r="B189" s="2">
         <v>248</v>
@@ -6591,10 +6591,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26389155968586997</v>
+        <v>0.55881317865247315</v>
       </c>
       <c r="B190" s="2">
         <v>224</v>
@@ -6615,10 +6615,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4326686831349833</v>
+        <v>3.5349272697201561E-2</v>
       </c>
       <c r="B191" s="2">
         <v>203</v>
@@ -6642,10 +6642,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41363509190348591</v>
+        <v>0.57411424468124739</v>
       </c>
       <c r="B192" s="2">
         <v>236</v>
@@ -6663,10 +6663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52413599345795592</v>
+        <v>0.86047949701289317</v>
       </c>
       <c r="B193" s="2">
         <v>111</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>5.8540862328296805E-3</v>
+        <v>0.33455490800252374</v>
       </c>
       <c r="B194" s="2">
         <v>140</v>
@@ -6708,10 +6708,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46820609022320014</v>
+        <v>0.58367163626996288</v>
       </c>
       <c r="B195" s="2">
         <v>154</v>
@@ -6729,10 +6729,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79600924511251492</v>
+        <v>0.84089660497585605</v>
       </c>
       <c r="B196" s="2">
         <v>146</v>
@@ -6753,10 +6753,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80215435449004713</v>
+        <v>0.16838388402544635</v>
       </c>
       <c r="B197" s="2">
         <v>219</v>
@@ -6774,10 +6774,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26568144410136874</v>
+        <v>0.25711139577624453</v>
       </c>
       <c r="B198" s="2">
         <v>79</v>
@@ -6804,10 +6804,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23990116185432686</v>
+        <v>0.50819266184544221</v>
       </c>
       <c r="B199" s="2">
         <v>249</v>
@@ -6828,10 +6828,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43340879714641611</v>
+        <v>0.33504801308591448</v>
       </c>
       <c r="B200" s="2">
         <v>138</v>
@@ -6852,10 +6852,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52733936137397985</v>
+        <v>0.22834854262816984</v>
       </c>
       <c r="B201" s="2">
         <v>50</v>
@@ -6879,10 +6879,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59068898534653169</v>
+        <v>0.55252651745509396</v>
       </c>
       <c r="B202" s="2">
         <v>185</v>
@@ -6918,10 +6918,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64846502773828896</v>
+        <v>0.1949738142566777</v>
       </c>
       <c r="B203" s="2">
         <v>43</v>
@@ -6945,10 +6945,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16886558560903231</v>
+        <v>0.34761247822168673</v>
       </c>
       <c r="B204" s="2">
         <v>9</v>
@@ -6966,10 +6966,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60652680686249394</v>
+        <v>0.45660683739646024</v>
       </c>
       <c r="B205" s="2">
         <v>179</v>
@@ -6993,10 +6993,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47066894416062288</v>
+        <v>0.11183421211673772</v>
       </c>
       <c r="B206" s="2">
         <v>93</v>
@@ -7017,10 +7017,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53427393680045054</v>
+        <v>0.10617211276985994</v>
       </c>
       <c r="B207" s="2">
         <v>242</v>
@@ -7041,10 +7041,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70950330213750934</v>
+        <v>0.26663499992444006</v>
       </c>
       <c r="B208" s="2">
         <v>100</v>
@@ -7068,10 +7068,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16873904083407076</v>
+        <v>0.6565833740177156</v>
       </c>
       <c r="B209" s="2">
         <v>188</v>
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3880666123573443</v>
+        <v>0.88533450652009571</v>
       </c>
       <c r="B210" s="2">
         <v>41</v>
@@ -7122,10 +7122,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25378257667435467</v>
+        <v>0.85668826672427589</v>
       </c>
       <c r="B211" s="2">
         <v>137</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88782986070095271</v>
+        <v>0.97820931528103261</v>
       </c>
       <c r="B212" s="2">
         <v>109</v>
@@ -7170,10 +7170,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79770361328031736</v>
+        <v>0.79354944227105995</v>
       </c>
       <c r="B213" s="2">
         <v>159</v>
@@ -7197,10 +7197,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1919832872489802E-2</v>
+        <v>0.66767385124982714</v>
       </c>
       <c r="B214" s="2">
         <v>16</v>
@@ -7218,10 +7218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60031277370634428</v>
+        <v>0.35480052248744809</v>
       </c>
       <c r="B215" s="2">
         <v>85</v>
@@ -7239,10 +7239,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41686498609439204</v>
+        <v>0.17963830398924507</v>
       </c>
       <c r="B216" s="2">
         <v>3</v>
@@ -7263,10 +7263,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30857636091178464</v>
+        <v>0.86161269320435163</v>
       </c>
       <c r="B217" s="2">
         <v>113</v>
@@ -7290,10 +7290,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7415430233040391</v>
+        <v>0.62373174123872921</v>
       </c>
       <c r="B218" s="2">
         <v>119</v>
@@ -7311,10 +7311,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22394568422252192</v>
+        <v>0.18598103567435786</v>
       </c>
       <c r="B219" s="2">
         <v>68</v>
@@ -7338,10 +7338,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56137080205856538</v>
+        <v>0.54754632663448877</v>
       </c>
       <c r="B220" s="2">
         <v>145</v>
@@ -7365,10 +7365,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66737555461148323</v>
+        <v>0.46565304962249676</v>
       </c>
       <c r="B221" s="2">
         <v>40</v>
@@ -7392,10 +7392,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48272705885659306</v>
+        <v>0.4544155159394998</v>
       </c>
       <c r="B222" s="2">
         <v>194</v>
@@ -7416,10 +7416,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10525710206993433</v>
+        <v>0.25522068363508055</v>
       </c>
       <c r="B223" s="2">
         <v>227</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21054960425934011</v>
+        <v>0.49980609765696538</v>
       </c>
       <c r="B224" s="2">
         <v>91</v>
@@ -7461,10 +7461,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1119843221903736E-2</v>
+        <v>0.76205678456344905</v>
       </c>
       <c r="B225" s="2">
         <v>77</v>
@@ -7482,10 +7482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95850693309983448</v>
+        <v>0.5933071470475576</v>
       </c>
       <c r="B226" s="2">
         <v>220</v>
@@ -7506,10 +7506,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26924264251824115</v>
+        <v>0.72156950181177537</v>
       </c>
       <c r="B227" s="2">
         <v>11</v>
@@ -7530,10 +7530,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12831145532009169</v>
+        <v>0.29689848626115722</v>
       </c>
       <c r="B228" s="2">
         <v>164</v>
@@ -7551,10 +7551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29806385110765432</v>
+        <v>0.17941115668232643</v>
       </c>
       <c r="B229" s="2">
         <v>171</v>
@@ -7575,10 +7575,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12544364971017474</v>
+        <v>0.8885373198650407</v>
       </c>
       <c r="B230" s="2">
         <v>123</v>
@@ -7599,10 +7599,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7324165077338407</v>
+        <v>0.73474710719544023</v>
       </c>
       <c r="B231" s="2">
         <v>59</v>
@@ -7623,10 +7623,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8744471761175006E-2</v>
+        <v>0.2357582787972019</v>
       </c>
       <c r="B232" s="2">
         <v>75</v>
@@ -7647,10 +7647,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67761651553578484</v>
+        <v>0.26747590731688353</v>
       </c>
       <c r="B233" s="2">
         <v>196</v>
@@ -7680,10 +7680,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80867399817109453</v>
+        <v>0.39636705489345181</v>
       </c>
       <c r="B234" s="2">
         <v>96</v>
@@ -7707,10 +7707,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13267747347633507</v>
+        <v>0.2455203645418369</v>
       </c>
       <c r="B235" s="2">
         <v>250</v>
@@ -7734,10 +7734,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71687537794078149</v>
+        <v>0.25030058035352565</v>
       </c>
       <c r="B236" s="2">
         <v>105</v>
@@ -7761,10 +7761,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1169670441219659</v>
+        <v>0.82382538148411255</v>
       </c>
       <c r="B237" s="2">
         <v>205</v>
@@ -7788,10 +7788,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84204549734577783</v>
+        <v>0.86822453404496902</v>
       </c>
       <c r="B238" s="2">
         <v>202</v>
@@ -7818,10 +7818,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85544348647700907</v>
+        <v>4.8617178442157294E-2</v>
       </c>
       <c r="B239" s="2">
         <v>10</v>
@@ -7854,10 +7854,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82790522114815679</v>
+        <v>0.2281345715318307</v>
       </c>
       <c r="B240" s="2">
         <v>209</v>
@@ -7878,10 +7878,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77833302101379553</v>
+        <v>0.87263251062469482</v>
       </c>
       <c r="B241" s="2">
         <v>7</v>
@@ -7902,10 +7902,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41881695716878942</v>
+        <v>0.55470120215800955</v>
       </c>
       <c r="B242" s="2">
         <v>156</v>
@@ -7929,10 +7929,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35521939959007509</v>
+        <v>0.48692337669128527</v>
       </c>
       <c r="B243" s="2">
         <v>125</v>
@@ -7953,10 +7953,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16392322760134204</v>
+        <v>0.88831880909437266</v>
       </c>
       <c r="B244" s="2">
         <v>168</v>
@@ -7980,10 +7980,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76441480419417784</v>
+        <v>0.88327366580285716</v>
       </c>
       <c r="B245" s="2">
         <v>221</v>
@@ -8004,10 +8004,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30960752798757496</v>
+        <v>0.8133467653273333</v>
       </c>
       <c r="B246" s="2">
         <v>151</v>
@@ -8031,10 +8031,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29094573528039469</v>
+        <v>0.6979638125886074</v>
       </c>
       <c r="B247" s="2">
         <v>172</v>
@@ -8055,10 +8055,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67248565043728159</v>
+        <v>0.74215698569627853</v>
       </c>
       <c r="B248" s="2">
         <v>88</v>
@@ -8079,10 +8079,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93874634668832124</v>
+        <v>0.87377656003268955</v>
       </c>
       <c r="B249" s="2">
         <v>253</v>
@@ -8103,10 +8103,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71101528751838172</v>
+        <v>0.35063894909177828</v>
       </c>
       <c r="B250" s="2">
         <v>178</v>
@@ -8130,10 +8130,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81492315778741964</v>
+        <v>0.91739139707087769</v>
       </c>
       <c r="B251" s="2">
         <v>37</v>
@@ -8157,10 +8157,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67479092673969032</v>
+        <v>0.40202940176343671</v>
       </c>
       <c r="B252" s="2">
         <v>197</v>
@@ -8181,10 +8181,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4505054456455353E-2</v>
+        <v>1.6163798251203398E-2</v>
       </c>
       <c r="B253" s="2">
         <v>92</v>
@@ -8208,10 +8208,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41645844576167013</v>
+        <v>0.75851418031710238</v>
       </c>
       <c r="B254" s="2">
         <v>149</v>
@@ -8229,10 +8229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12607156407990039</v>
+        <v>0.53376594184457327</v>
       </c>
       <c r="B255" s="2">
         <v>217</v>
@@ -8253,10 +8253,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48657248886583115</v>
+        <v>9.7657963846662255E-2</v>
       </c>
       <c r="B256" s="2">
         <v>62</v>
@@ -8274,10 +8274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67668793355692125</v>
+        <v>0.72214071634019106</v>
       </c>
       <c r="B257" s="2">
         <v>45</v>
@@ -8322,12 +8322,12 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>279</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>287</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>288</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>289</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>291</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -8524,12 +8524,12 @@
       <selection activeCell="M197" sqref="M197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>293</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>pride!B2</f>
         <v>182</v>
@@ -8617,7 +8617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>pride!B3</f>
         <v>208</v>
@@ -8667,7 +8667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>pride!B4</f>
         <v>161</v>
@@ -8717,7 +8717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>pride!B5</f>
         <v>13</v>
@@ -8767,7 +8767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>pride!B6</f>
         <v>81</v>
@@ -8817,7 +8817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>pride!B7</f>
         <v>80</v>
@@ -8867,7 +8867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>pride!B8</f>
         <v>98</v>
@@ -8917,7 +8917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>pride!B9</f>
         <v>170</v>
@@ -8967,7 +8967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>pride!B10</f>
         <v>189</v>
@@ -9017,7 +9017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>pride!B11</f>
         <v>124</v>
@@ -9067,7 +9067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>pride!B12</f>
         <v>226</v>
@@ -9117,7 +9117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>pride!B13</f>
         <v>48</v>
@@ -9167,7 +9167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>pride!B14</f>
         <v>176</v>
@@ -9217,7 +9217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>pride!B15</f>
         <v>83</v>
@@ -9267,7 +9267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>pride!B16</f>
         <v>173</v>
@@ -9317,7 +9317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>pride!B17</f>
         <v>120</v>
@@ -9367,7 +9367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>pride!B18</f>
         <v>72</v>
@@ -9417,7 +9417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>pride!B19</f>
         <v>166</v>
@@ -9467,7 +9467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>pride!B20</f>
         <v>74</v>
@@ -9517,7 +9517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>pride!B21</f>
         <v>153</v>
@@ -9567,7 +9567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>pride!B22</f>
         <v>127</v>
@@ -9617,7 +9617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>pride!B23</f>
         <v>155</v>
@@ -9667,7 +9667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>pride!B24</f>
         <v>243</v>
@@ -9717,7 +9717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>pride!B25</f>
         <v>136</v>
@@ -9767,7 +9767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>pride!B26</f>
         <v>106</v>
@@ -9817,7 +9817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>pride!B27</f>
         <v>4</v>
@@ -9867,7 +9867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>pride!B28</f>
         <v>212</v>
@@ -9917,7 +9917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>pride!B29</f>
         <v>235</v>
@@ -9967,7 +9967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>pride!B30</f>
         <v>70</v>
@@ -10017,7 +10017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>pride!B31</f>
         <v>175</v>
@@ -10067,7 +10067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>pride!B32</f>
         <v>223</v>
@@ -10117,7 +10117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>pride!B33</f>
         <v>228</v>
@@ -10167,7 +10167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>pride!B34</f>
         <v>108</v>
@@ -10217,7 +10217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>pride!B35</f>
         <v>116</v>
@@ -10267,7 +10267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>pride!B36</f>
         <v>240</v>
@@ -10317,7 +10317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>pride!B37</f>
         <v>118</v>
@@ -10367,7 +10367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>pride!B38</f>
         <v>5</v>
@@ -10417,7 +10417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>pride!B39</f>
         <v>210</v>
@@ -10467,7 +10467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>pride!B40</f>
         <v>99</v>
@@ -10517,7 +10517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>pride!B41</f>
         <v>165</v>
@@ -10567,7 +10567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>pride!B42</f>
         <v>252</v>
@@ -10617,7 +10617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>pride!B43</f>
         <v>87</v>
@@ -10667,7 +10667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>pride!B44</f>
         <v>241</v>
@@ -10717,7 +10717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>pride!B45</f>
         <v>229</v>
@@ -10767,7 +10767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>pride!B46</f>
         <v>46</v>
@@ -10817,7 +10817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>pride!B47</f>
         <v>49</v>
@@ -10867,7 +10867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>pride!B48</f>
         <v>21</v>
@@ -10917,7 +10917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>pride!B49</f>
         <v>144</v>
@@ -10967,7 +10967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>pride!B50</f>
         <v>230</v>
@@ -11017,7 +11017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>pride!B51</f>
         <v>134</v>
@@ -11067,7 +11067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>pride!B52</f>
         <v>61</v>
@@ -11117,7 +11117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>pride!B53</f>
         <v>234</v>
@@ -11167,7 +11167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>pride!B54</f>
         <v>82</v>
@@ -11217,7 +11217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>pride!B55</f>
         <v>192</v>
@@ -11267,7 +11267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>pride!B56</f>
         <v>150</v>
@@ -11317,7 +11317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>pride!B57</f>
         <v>191</v>
@@ -11367,7 +11367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>pride!B58</f>
         <v>53</v>
@@ -11417,7 +11417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>pride!B59</f>
         <v>35</v>
@@ -11467,7 +11467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>pride!B60</f>
         <v>30</v>
@@ -11517,7 +11517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>pride!B61</f>
         <v>73</v>
@@ -11567,7 +11567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>pride!B62</f>
         <v>28</v>
@@ -11617,7 +11617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>pride!B63</f>
         <v>65</v>
@@ -11667,7 +11667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>pride!B64</f>
         <v>256</v>
@@ -11717,7 +11717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>pride!B65</f>
         <v>163</v>
@@ -11767,7 +11767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>pride!B66</f>
         <v>12</v>
@@ -11817,7 +11817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>pride!B67</f>
         <v>187</v>
@@ -11867,7 +11867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>pride!B68</f>
         <v>201</v>
@@ -11917,7 +11917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>pride!B69</f>
         <v>27</v>
@@ -11967,7 +11967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>pride!B70</f>
         <v>181</v>
@@ -12017,7 +12017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>pride!B71</f>
         <v>63</v>
@@ -12067,7 +12067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>pride!B72</f>
         <v>107</v>
@@ -12117,7 +12117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>pride!B73</f>
         <v>36</v>
@@ -12167,7 +12167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>pride!B74</f>
         <v>94</v>
@@ -12217,7 +12217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>pride!B75</f>
         <v>122</v>
@@ -12267,7 +12267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>pride!B76</f>
         <v>246</v>
@@ -12317,7 +12317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>pride!B77</f>
         <v>32</v>
@@ -12367,7 +12367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>pride!B78</f>
         <v>183</v>
@@ -12417,7 +12417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>pride!B79</f>
         <v>20</v>
@@ -12467,7 +12467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>pride!B80</f>
         <v>39</v>
@@ -12517,7 +12517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>pride!B81</f>
         <v>174</v>
@@ -12567,7 +12567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>pride!B82</f>
         <v>90</v>
@@ -12617,7 +12617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>pride!B83</f>
         <v>69</v>
@@ -12667,7 +12667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>pride!B84</f>
         <v>216</v>
@@ -12717,7 +12717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>pride!B85</f>
         <v>86</v>
@@ -12767,7 +12767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>pride!B86</f>
         <v>142</v>
@@ -12817,7 +12817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>pride!B87</f>
         <v>112</v>
@@ -12867,7 +12867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>pride!B88</f>
         <v>121</v>
@@ -12917,7 +12917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>pride!B89</f>
         <v>54</v>
@@ -12967,7 +12967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>pride!B90</f>
         <v>231</v>
@@ -13017,7 +13017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>pride!B91</f>
         <v>58</v>
@@ -13067,7 +13067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>pride!B92</f>
         <v>251</v>
@@ -13117,7 +13117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>pride!B93</f>
         <v>215</v>
@@ -13167,7 +13167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>pride!B94</f>
         <v>195</v>
@@ -13217,7 +13217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>pride!B95</f>
         <v>97</v>
@@ -13267,7 +13267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>pride!B96</f>
         <v>254</v>
@@ -13317,7 +13317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>pride!B97</f>
         <v>167</v>
@@ -13367,7 +13367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>pride!B98</f>
         <v>169</v>
@@ -13417,7 +13417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>pride!B99</f>
         <v>128</v>
@@ -13467,7 +13467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>pride!B100</f>
         <v>157</v>
@@ -13517,7 +13517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>pride!B101</f>
         <v>193</v>
@@ -13567,7 +13567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>pride!B102</f>
         <v>206</v>
@@ -13617,7 +13617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>pride!B103</f>
         <v>152</v>
@@ -13667,7 +13667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>pride!B104</f>
         <v>207</v>
@@ -13717,7 +13717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>pride!B105</f>
         <v>15</v>
@@ -13767,7 +13767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>pride!B106</f>
         <v>204</v>
@@ -13817,7 +13817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>pride!B107</f>
         <v>132</v>
@@ -13867,7 +13867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>pride!B108</f>
         <v>57</v>
@@ -13917,7 +13917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>pride!B109</f>
         <v>162</v>
@@ -13967,7 +13967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>pride!B110</f>
         <v>78</v>
@@ -14017,7 +14017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>pride!B111</f>
         <v>66</v>
@@ -14067,7 +14067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>pride!B112</f>
         <v>126</v>
@@ -14117,7 +14117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>pride!B113</f>
         <v>6</v>
@@ -14167,7 +14167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>pride!B114</f>
         <v>233</v>
@@ -14217,7 +14217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>pride!B115</f>
         <v>222</v>
@@ -14267,7 +14267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>pride!B116</f>
         <v>158</v>
@@ -14317,7 +14317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>pride!B117</f>
         <v>24</v>
@@ -14367,7 +14367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>pride!B118</f>
         <v>133</v>
@@ -14417,7 +14417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>pride!B119</f>
         <v>67</v>
@@ -14467,7 +14467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>pride!B120</f>
         <v>47</v>
@@ -14517,7 +14517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>pride!B121</f>
         <v>200</v>
@@ -14567,7 +14567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>pride!B122</f>
         <v>247</v>
@@ -14617,7 +14617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <f>pride!B123</f>
         <v>198</v>
@@ -14667,7 +14667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <f>pride!B124</f>
         <v>199</v>
@@ -14717,7 +14717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <f>pride!B125</f>
         <v>114</v>
@@ -14767,7 +14767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <f>pride!B126</f>
         <v>211</v>
@@ -14817,7 +14817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <f>pride!B127</f>
         <v>38</v>
@@ -14867,7 +14867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <f>pride!B128</f>
         <v>23</v>
@@ -14917,7 +14917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>pride!B129</f>
         <v>117</v>
@@ -14967,7 +14967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <f>pride!B130</f>
         <v>115</v>
@@ -15017,7 +15017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <f>pride!B131</f>
         <v>238</v>
@@ -15067,7 +15067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>pride!B132</f>
         <v>244</v>
@@ -15117,7 +15117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>pride!B133</f>
         <v>84</v>
@@ -15167,7 +15167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>pride!B134</f>
         <v>76</v>
@@ -15217,7 +15217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>pride!B135</f>
         <v>139</v>
@@ -15267,7 +15267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>pride!B136</f>
         <v>148</v>
@@ -15317,7 +15317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>pride!B137</f>
         <v>131</v>
@@ -15367,7 +15367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>pride!B138</f>
         <v>42</v>
@@ -15417,7 +15417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>pride!B139</f>
         <v>177</v>
@@ -15467,7 +15467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <f>pride!B140</f>
         <v>214</v>
@@ -15517,7 +15517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <f>pride!B141</f>
         <v>29</v>
@@ -15567,7 +15567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <f>pride!B142</f>
         <v>104</v>
@@ -15617,7 +15617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <f>pride!B143</f>
         <v>19</v>
@@ -15667,7 +15667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <f>pride!B144</f>
         <v>225</v>
@@ -15717,7 +15717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <f>pride!B145</f>
         <v>141</v>
@@ -15767,7 +15767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <f>pride!B146</f>
         <v>51</v>
@@ -15817,7 +15817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <f>pride!B147</f>
         <v>17</v>
@@ -15867,7 +15867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <f>pride!B148</f>
         <v>160</v>
@@ -15917,7 +15917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>pride!B149</f>
         <v>218</v>
@@ -15967,7 +15967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>pride!B150</f>
         <v>56</v>
@@ -16017,7 +16017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <f>pride!B151</f>
         <v>147</v>
@@ -16067,7 +16067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>pride!B152</f>
         <v>129</v>
@@ -16117,7 +16117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>pride!B153</f>
         <v>190</v>
@@ -16167,7 +16167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>pride!B154</f>
         <v>14</v>
@@ -16217,7 +16217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>pride!B155</f>
         <v>130</v>
@@ -16267,7 +16267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>pride!B156</f>
         <v>101</v>
@@ -16317,7 +16317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>pride!B157</f>
         <v>239</v>
@@ -16367,7 +16367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>pride!B158</f>
         <v>255</v>
@@ -16417,7 +16417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>pride!B159</f>
         <v>34</v>
@@ -16467,7 +16467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>pride!B160</f>
         <v>71</v>
@@ -16517,7 +16517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <f>pride!B161</f>
         <v>55</v>
@@ -16567,7 +16567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <f>pride!B162</f>
         <v>232</v>
@@ -16617,7 +16617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <f>pride!B163</f>
         <v>89</v>
@@ -16667,7 +16667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <f>pride!B164</f>
         <v>31</v>
@@ -16717,7 +16717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <f>pride!B165</f>
         <v>44</v>
@@ -16767,7 +16767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <f>pride!B166</f>
         <v>184</v>
@@ -16817,7 +16817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <f>pride!B167</f>
         <v>143</v>
@@ -16867,7 +16867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <f>pride!B168</f>
         <v>186</v>
@@ -16917,7 +16917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <f>pride!B169</f>
         <v>102</v>
@@ -16967,7 +16967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <f>pride!B170</f>
         <v>103</v>
@@ -17017,7 +17017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <f>pride!B171</f>
         <v>52</v>
@@ -17067,7 +17067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <f>pride!B172</f>
         <v>110</v>
@@ -17117,7 +17117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <f>pride!B173</f>
         <v>213</v>
@@ -17167,7 +17167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <f>pride!B174</f>
         <v>25</v>
@@ -17217,7 +17217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <f>pride!B175</f>
         <v>237</v>
@@ -17267,7 +17267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <f>pride!B176</f>
         <v>2</v>
@@ -17317,7 +17317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <f>pride!B177</f>
         <v>60</v>
@@ -17367,7 +17367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <f>pride!B178</f>
         <v>245</v>
@@ -17417,7 +17417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <f>pride!B179</f>
         <v>33</v>
@@ -17467,7 +17467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <f>pride!B180</f>
         <v>22</v>
@@ -17517,7 +17517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <f>pride!B181</f>
         <v>26</v>
@@ -17567,7 +17567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <f>pride!B182</f>
         <v>64</v>
@@ -17617,7 +17617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <f>pride!B183</f>
         <v>8</v>
@@ -17667,7 +17667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <f>pride!B184</f>
         <v>1</v>
@@ -17717,7 +17717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <f>pride!B185</f>
         <v>135</v>
@@ -17767,7 +17767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>pride!B186</f>
         <v>95</v>
@@ -17817,7 +17817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <f>pride!B187</f>
         <v>18</v>
@@ -17867,7 +17867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <f>pride!B188</f>
         <v>180</v>
@@ -17917,7 +17917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <f>pride!B189</f>
         <v>248</v>
@@ -17967,7 +17967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>pride!B190</f>
         <v>224</v>
@@ -18017,7 +18017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <f>pride!B191</f>
         <v>203</v>
@@ -18067,7 +18067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <f>pride!B192</f>
         <v>236</v>
@@ -18117,7 +18117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f>pride!B193</f>
         <v>111</v>
@@ -18167,7 +18167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f>pride!B194</f>
         <v>140</v>
@@ -18217,7 +18217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f>pride!B195</f>
         <v>154</v>
@@ -18267,7 +18267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>pride!B196</f>
         <v>146</v>
@@ -18317,7 +18317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>pride!B197</f>
         <v>219</v>
@@ -18367,7 +18367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>pride!B198</f>
         <v>79</v>
@@ -18417,7 +18417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>pride!B199</f>
         <v>249</v>
@@ -18467,7 +18467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f>pride!B200</f>
         <v>138</v>
@@ -18517,7 +18517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f>pride!B201</f>
         <v>50</v>
@@ -18567,7 +18567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f>pride!B202</f>
         <v>185</v>
@@ -18617,7 +18617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f>pride!B203</f>
         <v>43</v>
@@ -18667,7 +18667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f>pride!B204</f>
         <v>9</v>
@@ -18717,7 +18717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <f>pride!B205</f>
         <v>179</v>
@@ -18767,7 +18767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>pride!B206</f>
         <v>93</v>
@@ -18817,7 +18817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>pride!B207</f>
         <v>242</v>
@@ -18867,7 +18867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>pride!B208</f>
         <v>100</v>
@@ -18917,7 +18917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <f>pride!B209</f>
         <v>188</v>
@@ -18967,7 +18967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <f>pride!B210</f>
         <v>41</v>
@@ -19017,7 +19017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>pride!B211</f>
         <v>137</v>
@@ -19067,7 +19067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>pride!B212</f>
         <v>109</v>
@@ -19117,7 +19117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>pride!B213</f>
         <v>159</v>
@@ -19167,7 +19167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>pride!B214</f>
         <v>16</v>
@@ -19217,7 +19217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>pride!B215</f>
         <v>85</v>
@@ -19267,7 +19267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>pride!B216</f>
         <v>3</v>
@@ -19317,7 +19317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>pride!B217</f>
         <v>113</v>
@@ -19367,7 +19367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>pride!B218</f>
         <v>119</v>
@@ -19417,7 +19417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <f>pride!B219</f>
         <v>68</v>
@@ -19467,7 +19467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <f>pride!B220</f>
         <v>145</v>
@@ -19517,7 +19517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <f>pride!B221</f>
         <v>40</v>
@@ -19567,7 +19567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <f>pride!B222</f>
         <v>194</v>
@@ -19617,7 +19617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <f>pride!B223</f>
         <v>227</v>
@@ -19667,7 +19667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <f>pride!B224</f>
         <v>91</v>
@@ -19717,7 +19717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <f>pride!B225</f>
         <v>77</v>
@@ -19767,7 +19767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <f>pride!B226</f>
         <v>220</v>
@@ -19817,7 +19817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <f>pride!B227</f>
         <v>11</v>
@@ -19867,7 +19867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <f>pride!B228</f>
         <v>164</v>
@@ -19917,7 +19917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <f>pride!B229</f>
         <v>171</v>
@@ -19967,7 +19967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <f>pride!B230</f>
         <v>123</v>
@@ -20017,7 +20017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <f>pride!B231</f>
         <v>59</v>
@@ -20067,7 +20067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <f>pride!B232</f>
         <v>75</v>
@@ -20117,7 +20117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <f>pride!B233</f>
         <v>196</v>
@@ -20167,7 +20167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <f>pride!B234</f>
         <v>96</v>
@@ -20217,7 +20217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <f>pride!B235</f>
         <v>250</v>
@@ -20267,7 +20267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <f>pride!B236</f>
         <v>105</v>
@@ -20317,7 +20317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <f>pride!B237</f>
         <v>205</v>
@@ -20367,7 +20367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <f>pride!B238</f>
         <v>202</v>
@@ -20417,7 +20417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <f>pride!B239</f>
         <v>10</v>
@@ -20467,7 +20467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <f>pride!B240</f>
         <v>209</v>
@@ -20517,7 +20517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <f>pride!B241</f>
         <v>7</v>
@@ -20567,7 +20567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <f>pride!B242</f>
         <v>156</v>
@@ -20617,7 +20617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <f>pride!B243</f>
         <v>125</v>
@@ -20667,7 +20667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <f>pride!B244</f>
         <v>168</v>
@@ -20717,7 +20717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <f>pride!B245</f>
         <v>221</v>
@@ -20767,7 +20767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <f>pride!B246</f>
         <v>151</v>
@@ -20817,7 +20817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <f>pride!B247</f>
         <v>172</v>
@@ -20867,7 +20867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <f>pride!B248</f>
         <v>88</v>
@@ -20917,7 +20917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <f>pride!B249</f>
         <v>253</v>
@@ -20967,7 +20967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <f>pride!B250</f>
         <v>178</v>
@@ -21017,7 +21017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <f>pride!B251</f>
         <v>37</v>
@@ -21067,7 +21067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <f>pride!B252</f>
         <v>197</v>
@@ -21117,7 +21117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <f>pride!B253</f>
         <v>92</v>
@@ -21167,7 +21167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <f>pride!B254</f>
         <v>149</v>
@@ -21217,7 +21217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <f>pride!B255</f>
         <v>217</v>
@@ -21267,7 +21267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <f>pride!B256</f>
         <v>62</v>
@@ -21317,7 +21317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <f>pride!B257</f>
         <v>45</v>
